--- a/hardware/MOUSER-450001XXXXxlsxREMPLIS.xlsx
+++ b/hardware/MOUSER-450001XXXXxlsxREMPLIS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="112">
   <si>
     <t xml:space="preserve">MOUSER</t>
   </si>
@@ -145,7 +145,13 @@
     <t xml:space="preserve">120</t>
   </si>
   <si>
+    <t xml:space="preserve">579-MCP14A0151T-E/CH </t>
+  </si>
+  <si>
     <t xml:space="preserve">130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">726-BSC0909NS </t>
   </si>
   <si>
     <t xml:space="preserve">140</t>
@@ -411,7 +417,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -492,6 +498,21 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FFF10D0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -576,7 +597,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -641,11 +662,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,19 +698,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -704,7 +733,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFF10D0C"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -748,7 +777,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFF10D0C"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -870,8 +899,8 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1236,7 +1265,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="6" t="n">
@@ -1271,7 +1300,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="6" t="n">
@@ -1305,15 +1334,21 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>10</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="16" t="n">
+        <v>0.482</v>
+      </c>
       <c r="J13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1333,15 +1368,21 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>5</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="16" t="n">
+        <v>0.781</v>
+      </c>
       <c r="J14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1354,21 +1395,28 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>10</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="I15" s="16" t="n">
+        <v>0.427</v>
+      </c>
       <c r="J15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +1429,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1393,7 +1441,7 @@
       <c r="G16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="17"/>
+      <c r="H16" s="19"/>
       <c r="J16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1454,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1417,7 +1465,7 @@
       <c r="G17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="17"/>
+      <c r="H17" s="19"/>
       <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
@@ -1430,7 +1478,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1441,7 +1489,7 @@
       <c r="G18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="17"/>
+      <c r="H18" s="19"/>
       <c r="J18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1502,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>13</v>
@@ -1465,7 +1513,7 @@
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="17"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="8" t="n">
         <v>21</v>
       </c>
@@ -1481,7 +1529,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>13</v>
@@ -1492,7 +1540,7 @@
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="17"/>
+      <c r="H20" s="19"/>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1505,7 +1553,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>13</v>
@@ -1526,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1</v>
@@ -1535,7 +1583,7 @@
         <v>15</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>17</v>
@@ -1552,14 +1600,14 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3"/>
-      <c r="I23" s="18" t="e">
+      <c r="I23" s="20" t="e">
         <f aca="false">SUMPRODUCT(I3:I10,F3:F13)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3"/>
-      <c r="I24" s="18" t="e">
+      <c r="I24" s="20" t="e">
         <f aca="false">I23*1.2</f>
         <v>#VALUE!</v>
       </c>
@@ -1570,304 +1618,304 @@
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="3"/>
       <c r="H26" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="19"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
-        <v>52</v>
+      <c r="A30" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>53</v>
+      <c r="A31" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
-        <v>54</v>
+      <c r="A32" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
       <c r="D34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
       <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
       <c r="D37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="D39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="D42" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="D43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="D44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="E48" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="25"/>
+      <c r="B49" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="26" t="s">
         <v>82</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E51" s="24" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="E51" s="26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="24" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E53" s="26" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E54" s="24"/>
+      <c r="A54" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
+      <c r="A55" s="24"/>
       <c r="D55" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
+      <c r="A56" s="24"/>
       <c r="D56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
+      <c r="A57" s="24"/>
       <c r="D57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
+      <c r="A58" s="24"/>
       <c r="D58" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="25"/>
+      <c r="A59" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="27"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
-        <v>109</v>
+      <c r="A65" s="24" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
